--- a/data/results/quantile/Test_output_3.xlsx
+++ b/data/results/quantile/Test_output_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2288,7 +2288,7 @@
         <v>4.678011642163225</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8797307721055441</v>
+        <v>0.8193226766145638</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8874300052292314</v>
+        <v>0.8767045342980002</v>
       </c>
       <c r="C110" t="n">
-        <v>5.085424141919081</v>
+        <v>5.102637973729856</v>
       </c>
       <c r="D110" t="n">
-        <v>4.320765756272567</v>
+        <v>4.320788060689529</v>
       </c>
       <c r="E110" t="n">
-        <v>0.804013319723385</v>
+        <v>0.7980594688769648</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8968905160418884</v>
+        <v>0.8843893727398762</v>
       </c>
       <c r="C111" t="n">
-        <v>4.843121956108172</v>
+        <v>4.868003672809683</v>
       </c>
       <c r="D111" t="n">
-        <v>4.304331866496121</v>
+        <v>4.304235654817226</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7929162441113885</v>
+        <v>0.8021666152604238</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9057922027205457</v>
+        <v>0.891962502251481</v>
       </c>
       <c r="C112" t="n">
-        <v>4.650491127727871</v>
+        <v>4.700845865120071</v>
       </c>
       <c r="D112" t="n">
-        <v>4.31998180346844</v>
+        <v>4.32007921140398</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8034650264195637</v>
+        <v>0.8017279532686989</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9132582171310519</v>
+        <v>0.8993987169897507</v>
       </c>
       <c r="C113" t="n">
-        <v>4.538291999640202</v>
+        <v>4.672271475553261</v>
       </c>
       <c r="D113" t="n">
-        <v>4.353568310900599</v>
+        <v>4.354139992236681</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7972765264830359</v>
+        <v>0.795017619147997</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.919425014822286</v>
+        <v>0.9064991265785438</v>
       </c>
       <c r="C114" t="n">
-        <v>4.538241297521157</v>
+        <v>4.701325932164764</v>
       </c>
       <c r="D114" t="n">
-        <v>4.345993457307795</v>
+        <v>4.345693091356274</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8011144096692251</v>
+        <v>0.7926151572780125</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9244349837698943</v>
+        <v>0.9131198678420749</v>
       </c>
       <c r="C115" t="n">
-        <v>4.57846046489704</v>
+        <v>4.702029071290878</v>
       </c>
       <c r="D115" t="n">
-        <v>4.333674720947199</v>
+        <v>4.333274203562537</v>
       </c>
       <c r="E115" t="n">
-        <v>0.803520327295639</v>
+        <v>0.791535368143278</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9286261357501662</v>
+        <v>0.9193829282569943</v>
       </c>
       <c r="C116" t="n">
-        <v>4.605306563958846</v>
+        <v>4.723327868678487</v>
       </c>
       <c r="D116" t="n">
-        <v>4.303587911168579</v>
+        <v>4.303629636201039</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8221792887337029</v>
+        <v>0.7967547871976977</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9328657662732499</v>
+        <v>0.925381802630638</v>
       </c>
       <c r="C117" t="n">
-        <v>4.671822018706812</v>
+        <v>4.690739551388446</v>
       </c>
       <c r="D117" t="n">
-        <v>4.314545820278623</v>
+        <v>4.314641722661256</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8482201762792277</v>
+        <v>0.800593514111184</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9379702958680733</v>
+        <v>0.9314043351200949</v>
       </c>
       <c r="C118" t="n">
-        <v>4.647112028102005</v>
+        <v>4.564912941936081</v>
       </c>
       <c r="D118" t="n">
-        <v>4.329570787886388</v>
+        <v>4.329761577868766</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8397639517056472</v>
+        <v>0.8003782304739002</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9438115094699203</v>
+        <v>0.9373448163553986</v>
       </c>
       <c r="C119" t="n">
-        <v>4.542282496295409</v>
+        <v>4.507186490175107</v>
       </c>
       <c r="D119" t="n">
-        <v>4.362960310072242</v>
+        <v>4.363307434519975</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8384106620934588</v>
+        <v>0.8024833437718557</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9507376788618603</v>
+        <v>0.9432684340541643</v>
       </c>
       <c r="C120" t="n">
-        <v>4.473515906315581</v>
+        <v>4.534491093987183</v>
       </c>
       <c r="D120" t="n">
-        <v>4.399679326909303</v>
+        <v>4.40005464273183</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8348770750206522</v>
+        <v>0.8125866747090338</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9591523496479014</v>
+        <v>0.9493916562943039</v>
       </c>
       <c r="C121" t="n">
-        <v>4.40034518924911</v>
+        <v>4.495086280173592</v>
       </c>
       <c r="D121" t="n">
-        <v>4.448730058842916</v>
+        <v>4.449158351862707</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8650292341698809</v>
+        <v>0.818330096070226</v>
       </c>
     </row>
   </sheetData>
